--- a/需求文档/Linux_酷开JS-SDK接口列表_v0.1.xlsx
+++ b/需求文档/Linux_酷开JS-SDK接口列表_v0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25785" windowHeight="14325"/>
+    <workbookView windowWidth="22110" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="酷开开放平台接口列表" sheetId="2" r:id="rId1"/>
@@ -694,9 +694,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -716,9 +716,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,9 +759,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,13 +783,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -791,9 +791,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,14 +808,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -826,6 +818,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,6 +983,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -995,12 +1007,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1019,6 +1043,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1031,6 +1067,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1049,25 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,6 +1121,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1109,7 +1139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,43 +1151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,21 +1225,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1259,6 +1244,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1291,145 +1291,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1845,8 +1845,8 @@
   <sheetPr/>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
